--- a/twitter_code/Clustering Options.xlsx
+++ b/twitter_code/Clustering Options.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>V</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>|V|(|V| + |E|)</t>
+  </si>
+  <si>
+    <t>LOUVAIN</t>
+  </si>
+  <si>
+    <t>SPINGLASS</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -100,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -144,7 +156,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A18" sqref="A18:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -611,6 +623,188 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
